--- a/Semester-2/Data-and-Machine-Learning/Sample-Data/sampledatasafety.xlsx
+++ b/Semester-2/Data-and-Machine-Learning/Sample-Data/sampledatasafety.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5001322\Downloads\sampledatasafety\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\TAFE\Dual-Diploma-2024\Semester-2\Data-and-Machine-Learning\Sample-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C8EC09-34E4-4967-A428-DE7FB438C28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="1815" windowWidth="21090" windowHeight="11115"/>
+    <workbookView xWindow="10080" yWindow="0" windowWidth="10410" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
     <sheet name="SafetyData" sheetId="1" r:id="rId2"/>
     <sheet name="MyLinks" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,6 +26,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -506,7 +509,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
@@ -658,9 +661,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Ctx_Hyperlink" xfId="1"/>
+    <cellStyle name="Ctx_Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -980,30 +983,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SafetyData" displayName="SafetyData" ref="A1:N515" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:N515"/>
-  <sortState ref="A2:N611">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SafetyData" displayName="SafetyData" ref="A1:N515" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:N515" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N611">
     <sortCondition ref="A424"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Date" dataDxfId="13"/>
-    <tableColumn id="5" name="Injury Location" dataDxfId="12"/>
-    <tableColumn id="6" name="Gender" dataDxfId="11"/>
-    <tableColumn id="7" name="Age Group" dataDxfId="10"/>
-    <tableColumn id="8" name="Incident Type" dataDxfId="9"/>
-    <tableColumn id="9" name="Days Lost" dataDxfId="8"/>
-    <tableColumn id="10" name="Plant" dataDxfId="7"/>
-    <tableColumn id="11" name="Report Type" dataDxfId="6"/>
-    <tableColumn id="12" name="Shift" dataDxfId="5"/>
-    <tableColumn id="13" name="Department" dataDxfId="4"/>
-    <tableColumn id="14" name="Incident Cost" dataDxfId="3"/>
-    <tableColumn id="2" name="WkDay" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Injury Location" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Gender" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Age Group" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Incident Type" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Days Lost" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Plant" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Report Type" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Shift" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Department" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Incident Cost" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="WkDay" dataDxfId="2">
       <calculatedColumnFormula>TEXT(SafetyData[[#This Row],[Date]],"ddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Month" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Month" dataDxfId="1">
       <calculatedColumnFormula>MONTH(SafetyData[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Year" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Year" dataDxfId="0">
       <calculatedColumnFormula>YEAR(SafetyData[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1012,9 +1015,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1052,9 +1055,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1089,7 +1092,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1124,7 +1127,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1297,11 +1300,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:C35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B14" sqref="B14"/>
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
@@ -1420,52 +1423,52 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="18" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2"/>
-    <hyperlink ref="C10" r:id="rId3" location="numberdate"/>
-    <hyperlink ref="C11" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C10" r:id="rId3" location="numberdate" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -1477,11 +1480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N515"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -25720,7 +25723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="B2:C9"/>
   <sheetViews>
@@ -25791,11 +25794,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B9" r:id="rId5" tooltip="Contextures Recommends"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" tooltip="Contextures Recommends" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
